--- a/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正.xlsx
+++ b/feature/JR/20251204_JR追記_レシート印字項目一覧 (MC修正.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\JR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EAEDB81-42DB-401E-9618-2699B0861466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F5FC6-2DF5-491A-A04D-59498BE27D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
   </bookViews>
   <sheets>
     <sheet name="印字項目_売上票(251204)" sheetId="3" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,6 +1269,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,7 +1432,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1536,16 +1548,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,11 +1611,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6149,7 +6167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18F9DE7-D1AA-4B4C-96E4-A534B920B8E3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -7890,8 +7908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F92E6-1551-4213-B3D6-3CE3DEF48664}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7956,17 +7974,19 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" s="60"/>
       <c r="B12" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" s="60"/>
       <c r="B13" s="2" t="s">
         <v>106</v>
       </c>
@@ -7978,6 +7998,7 @@
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" s="60"/>
       <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
@@ -7989,6 +8010,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
+      <c r="A15" s="60"/>
       <c r="B15" s="2" t="s">
         <v>108</v>
       </c>
@@ -8000,6 +8022,7 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16" s="60"/>
       <c r="B16" s="2" t="s">
         <v>109</v>
       </c>
@@ -8010,7 +8033,8 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="1:8">
+      <c r="A17" s="60"/>
       <c r="B17" s="2" t="s">
         <v>110</v>
       </c>
@@ -8021,7 +8045,8 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="1:8">
+      <c r="A18" s="60"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -8032,7 +8057,8 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="1:8">
+      <c r="A19" s="60"/>
       <c r="B19" s="2" t="s">
         <v>111</v>
       </c>
@@ -8043,7 +8069,8 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="1:8">
+      <c r="A20" s="60"/>
       <c r="B20" s="2" t="s">
         <v>112</v>
       </c>
@@ -8054,7 +8081,8 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="1:8">
+      <c r="A21" s="60"/>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -8065,7 +8093,8 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="1:8">
+      <c r="A22" s="60"/>
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -8076,7 +8105,8 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="1:8">
+      <c r="A23" s="60"/>
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -8087,7 +8117,8 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:8">
+      <c r="A24" s="60"/>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -8098,7 +8129,8 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="1:8">
+      <c r="A25" s="60"/>
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
@@ -8109,7 +8141,8 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="1:8">
+      <c r="A26" s="60"/>
       <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
@@ -8120,7 +8153,8 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="1:8">
+      <c r="A27" s="60"/>
       <c r="B27" s="2" t="s">
         <v>124</v>
       </c>
@@ -8131,7 +8165,8 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="1:8">
+      <c r="A28" s="60"/>
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
@@ -8142,7 +8177,8 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="1:8">
+      <c r="A29" s="60"/>
       <c r="B29" s="2" t="s">
         <v>125</v>
       </c>
@@ -8153,7 +8189,8 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="1:8">
+      <c r="A30" s="60"/>
       <c r="B30" s="2" t="s">
         <v>126</v>
       </c>
@@ -8164,7 +8201,8 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="1:8">
+      <c r="A31" s="60"/>
       <c r="B31" s="2" t="s">
         <v>127</v>
       </c>
@@ -8175,7 +8213,8 @@
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="1:8">
+      <c r="A32" s="60"/>
       <c r="B32" s="2" t="s">
         <v>128</v>
       </c>
@@ -8186,7 +8225,8 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="1:8">
+      <c r="A33" s="60"/>
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
@@ -8197,7 +8237,8 @@
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="1:8">
+      <c r="A34" s="60"/>
       <c r="B34" s="2" t="s">
         <v>114</v>
       </c>
@@ -8208,7 +8249,8 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="1:8">
+      <c r="A35" s="60"/>
       <c r="B35" s="2" t="s">
         <v>115</v>
       </c>
@@ -8289,22 +8331,22 @@
       <c r="F5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="39" t="s">
+      <c r="L5" s="42"/>
+      <c r="M5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="40"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" ht="373.2" customHeight="1">
       <c r="B6" s="23" t="s">
@@ -8350,14 +8392,14 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="2" t="s">
@@ -8367,14 +8409,14 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="2" t="s">
@@ -8486,14 +8528,14 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="2" t="s">
@@ -8503,14 +8545,14 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="2" t="s">
@@ -8520,14 +8562,14 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40"/>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="2" t="s">
@@ -8537,14 +8579,14 @@
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="2" t="s">
@@ -8571,14 +8613,14 @@
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="2" t="s">
@@ -8622,12 +8664,12 @@
       <c r="D25" s="24"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="34"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="34"/>
       <c r="N25" s="36"/>
     </row>
@@ -8654,12 +8696,12 @@
       <c r="F27" s="24"/>
       <c r="G27" s="34"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="34"/>
       <c r="L27" s="36"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="2" t="s">
@@ -8669,75 +8711,37 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G22:H22"/>
@@ -8748,26 +8752,64 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8790,354 +8832,354 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="50"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="50"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="50"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="50"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="53"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
@@ -9148,373 +9190,363 @@
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="J4:M20"/>
+    <mergeCell ref="N4:Q20"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="B4:E20"/>
+    <mergeCell ref="F4:I20"/>
+    <mergeCell ref="J2:M3"/>
+    <mergeCell ref="N2:Q3"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:M23"/>
@@ -9531,29 +9563,39 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="J27:M27"/>
     <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J4:M20"/>
-    <mergeCell ref="N4:Q20"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="B4:E20"/>
-    <mergeCell ref="F4:I20"/>
-    <mergeCell ref="J2:M3"/>
-    <mergeCell ref="N2:Q3"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9580,666 +9622,666 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:34" ht="18" customHeight="1">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="52" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="52" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="52" t="s">
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="52" t="s">
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="52" t="s">
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="52" t="s">
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="54"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
     </row>
     <row r="4" spans="3:34">
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="59"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="47"/>
     </row>
     <row r="6" spans="3:34">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="50"/>
     </row>
     <row r="7" spans="3:34">
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="50"/>
     </row>
     <row r="8" spans="3:34">
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="50"/>
     </row>
     <row r="9" spans="3:34">
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="50"/>
     </row>
     <row r="10" spans="3:34">
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="50"/>
     </row>
     <row r="11" spans="3:34">
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="50"/>
     </row>
     <row r="12" spans="3:34">
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="50"/>
     </row>
     <row r="13" spans="3:34">
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="50"/>
     </row>
     <row r="14" spans="3:34">
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="50"/>
     </row>
     <row r="15" spans="3:34">
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="50"/>
     </row>
     <row r="16" spans="3:34">
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="50"/>
     </row>
     <row r="17" spans="2:34">
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="50"/>
     </row>
     <row r="18" spans="2:34">
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="50"/>
     </row>
     <row r="19" spans="2:34">
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="50"/>
     </row>
     <row r="20" spans="2:34">
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="50"/>
     </row>
     <row r="21" spans="2:34">
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="53"/>
     </row>
     <row r="22" spans="2:34" ht="18" customHeight="1">
       <c r="B22" t="s">
@@ -10266,734 +10308,742 @@
       <c r="B23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="58"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
     </row>
     <row r="25" spans="2:34">
       <c r="B25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
     </row>
     <row r="26" spans="2:34">
       <c r="B26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
     </row>
     <row r="28" spans="2:34">
       <c r="B28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="43"/>
     </row>
     <row r="29" spans="2:34">
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="59"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
     </row>
     <row r="30" spans="2:34">
       <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="59"/>
-      <c r="AH30" s="59"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
     </row>
     <row r="31" spans="2:34">
       <c r="B31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
     </row>
     <row r="32" spans="2:34">
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="58"/>
-      <c r="AG32" s="58"/>
-      <c r="AH32" s="58"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
     </row>
     <row r="33" spans="2:34">
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="43"/>
     </row>
     <row r="34" spans="2:34">
       <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="59"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
     </row>
     <row r="35" spans="2:34">
       <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
     </row>
     <row r="36" spans="2:34">
       <c r="B36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="58"/>
-      <c r="Y36" s="58"/>
-      <c r="Z36" s="58"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58"/>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="58"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="58"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
     </row>
     <row r="37" spans="2:34">
       <c r="B37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="59"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="43"/>
+      <c r="AG37" s="43"/>
+      <c r="AH37" s="43"/>
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="59"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
     </row>
     <row r="39" spans="2:34">
       <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="58"/>
-      <c r="AG39" s="58"/>
-      <c r="AH39" s="58"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
     </row>
     <row r="40" spans="2:34">
       <c r="B40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="43"/>
+      <c r="AH40" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AE40:AH40"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="AE37:AH37"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="AE36:AH36"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="AE33:AH33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="AE34:AH34"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="AA31:AD31"/>
-    <mergeCell ref="AE31:AH31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AE32:AH32"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="AE29:AH29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="AE30:AH30"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="AE27:AH27"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="AE28:AH28"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="AE25:AH25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="AE26:AH26"/>
+    <mergeCell ref="S3:V4"/>
+    <mergeCell ref="W3:Z4"/>
+    <mergeCell ref="AA3:AD4"/>
+    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="S5:V21"/>
+    <mergeCell ref="W5:Z21"/>
+    <mergeCell ref="AA5:AD21"/>
+    <mergeCell ref="AE5:AH21"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="K3:N4"/>
+    <mergeCell ref="O3:R4"/>
+    <mergeCell ref="C5:F21"/>
+    <mergeCell ref="G5:J21"/>
+    <mergeCell ref="K5:N21"/>
+    <mergeCell ref="O5:R21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="S23:V23"/>
     <mergeCell ref="W23:Z23"/>
     <mergeCell ref="AA23:AD23"/>
@@ -11018,78 +11068,70 @@
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="K35:N35"/>
     <mergeCell ref="O35:R35"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S3:V4"/>
-    <mergeCell ref="W3:Z4"/>
-    <mergeCell ref="AA3:AD4"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="S5:V21"/>
-    <mergeCell ref="W5:Z21"/>
-    <mergeCell ref="AA5:AD21"/>
-    <mergeCell ref="AE5:AH21"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="K3:N4"/>
-    <mergeCell ref="O3:R4"/>
-    <mergeCell ref="C5:F21"/>
-    <mergeCell ref="G5:J21"/>
-    <mergeCell ref="K5:N21"/>
-    <mergeCell ref="O5:R21"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="AE27:AH27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="AE28:AH28"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="AE25:AH25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="AE26:AH26"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="AA31:AD31"/>
+    <mergeCell ref="AE31:AH31"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE32:AH32"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="AE29:AH29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="AE30:AH30"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="AE35:AH35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="AE36:AH36"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="AE33:AH33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="AA34:AD34"/>
+    <mergeCell ref="AE34:AH34"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="AE37:AH37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="AE38:AH38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11112,354 +11154,354 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="50"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="50"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="50"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="50"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="53"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
@@ -11470,343 +11512,351 @@
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="J4:M20"/>
+    <mergeCell ref="N4:Q20"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="B4:E20"/>
+    <mergeCell ref="F4:I20"/>
+    <mergeCell ref="J2:M3"/>
+    <mergeCell ref="N2:Q3"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="J31:M31"/>
@@ -11819,38 +11869,30 @@
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="J4:M20"/>
-    <mergeCell ref="N4:Q20"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="B4:E20"/>
-    <mergeCell ref="F4:I20"/>
-    <mergeCell ref="J2:M3"/>
-    <mergeCell ref="N2:Q3"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11860,14 +11902,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dad903fd-12f2-4e58-a201-cc1713535572">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a8f6b33d-e1fc-48c5-a921-743471dc8fb5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12112,27 +12152,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dad903fd-12f2-4e58-a201-cc1713535572">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a8f6b33d-e1fc-48c5-a921-743471dc8fb5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FECA2B5-2831-44D4-B53E-224B8EB92E6A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C91D153C-2FB8-403C-AA16-BFB1ABCD7A5D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dad903fd-12f2-4e58-a201-cc1713535572"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a8f6b33d-e1fc-48c5-a921-743471dc8fb5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12157,9 +12190,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C91D153C-2FB8-403C-AA16-BFB1ABCD7A5D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FECA2B5-2831-44D4-B53E-224B8EB92E6A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="dad903fd-12f2-4e58-a201-cc1713535572"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a8f6b33d-e1fc-48c5-a921-743471dc8fb5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>